--- a/Analysis/RQ2-RQ4/Log files/goals_combined.xlsx
+++ b/Analysis/RQ2-RQ4/Log files/goals_combined.xlsx
@@ -316,10 +316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -695,77 +695,147 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
-        <f t="shared" ref="B34:C34" si="0">AVERAGE(B2:B33)</f>
-        <v>8.25</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <f t="shared" ref="B35:C35" si="1">MIN(B2:B33)</f>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <f>AVERAGE(B2:B40)</f>
+        <v>8.1282051282051277</v>
+      </c>
+      <c r="C41" s="4">
+        <f>AVERAGE(C2:C40)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <f>MIN(B2:B40)</f>
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="C42" s="1">
+        <f>MIN(C2:C40)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <f t="shared" ref="B36:C36" si="2">MAX(B2:B33)</f>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <f>MAX(B2:B33)</f>
         <v>10</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
+      <c r="C43" s="1">
+        <f>MAX(C2:C40)</f>
         <v>6</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
-        <f t="shared" ref="B37:C37" si="3">MEDIAN(B2:B33)</f>
-        <v>8.5</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <f>MEDIAN(B2:B40)</f>
+        <v>8</v>
+      </c>
+      <c r="C44" s="1">
+        <f>MEDIAN(C2:C40)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
-        <f t="shared" ref="B38:C38" si="4">STDEVP(B2:B33)</f>
-        <v>1.3693063937629153</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="D38" s="2" t="s">
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <f>STDEVP(B2:B40)</f>
+        <v>1.3239313480436499</v>
+      </c>
+      <c r="C45" s="1">
+        <f>STDEVP(C2:C40)</f>
+        <v>0.7623624998624875</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1721,6 +1791,13 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
